--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3671.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3671.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.311095693806314</v>
+        <v>0.6260720491409302</v>
       </c>
       <c r="B1">
-        <v>2.128885460706365</v>
+        <v>0.481922835111618</v>
       </c>
       <c r="C1">
-        <v>6.051082454064489</v>
+        <v>0.3589450716972351</v>
       </c>
       <c r="D1">
-        <v>3.910883484622584</v>
+        <v>0.3376679122447968</v>
       </c>
       <c r="E1">
-        <v>1.050996885125988</v>
+        <v>0.3547993898391724</v>
       </c>
     </row>
   </sheetData>
